--- a/data-raw/master_spreadsheet.xlsx
+++ b/data-raw/master_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/tyler_sagendorf_pnnl_gov/Documents/Documents/GitHub/MotrpacRatTrainingPhysiologyData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{30165F3F-EC58-4D83-947C-1967F7365395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B465F459-AE37-4897-A0ED-9BB87EF43737}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{30165F3F-EC58-4D83-947C-1967F7365395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA551AEC-EDD0-4546-A6F9-B98CDF3225CF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{48E83CD8-9515-C84B-AE7B-F9EF1ED86EC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48E83CD8-9515-C84B-AE7B-F9EF1ED86EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Female 6M" sheetId="3" r:id="rId1"/>
@@ -1929,11 +1929,11 @@
   </sheetPr>
   <dimension ref="A1:DC80"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AJ71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="CO43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AN83" sqref="AN83"/>
+      <selection pane="bottomRight" activeCell="CU44" sqref="CU44:CU63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11647,7 +11647,7 @@
       <c r="CT44" s="8">
         <v>2.5</v>
       </c>
-      <c r="CU44" s="8">
+      <c r="CU44" s="5">
         <v>10.199999999999999</v>
       </c>
       <c r="CV44" s="8">
@@ -11884,8 +11884,8 @@
       <c r="CT45" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="CU45" s="8">
-        <v>1.4</v>
+      <c r="CU45" s="5">
+        <v>7.9</v>
       </c>
       <c r="CV45" s="8">
         <v>2.2999999999999998</v>
@@ -12121,8 +12121,8 @@
       <c r="CT46" s="8">
         <v>1.7</v>
       </c>
-      <c r="CU46" s="8">
-        <v>1.5</v>
+      <c r="CU46" s="5">
+        <v>10.1</v>
       </c>
       <c r="CV46" s="8">
         <v>3.3</v>
@@ -12374,8 +12374,8 @@
       <c r="CT47" s="8">
         <v>3.4</v>
       </c>
-      <c r="CU47" s="8">
-        <v>1.5</v>
+      <c r="CU47" s="5">
+        <v>7.4</v>
       </c>
       <c r="CV47" s="8">
         <v>5.0999999999999996</v>
@@ -12627,8 +12627,8 @@
       <c r="CT48" s="8">
         <v>1.7</v>
       </c>
-      <c r="CU48" s="8">
-        <v>0.9</v>
+      <c r="CU48" s="5">
+        <v>12.9</v>
       </c>
       <c r="CV48" s="8">
         <v>3.6</v>
@@ -12882,8 +12882,8 @@
       <c r="CT49" s="8">
         <v>3</v>
       </c>
-      <c r="CU49" s="8">
-        <v>1.4</v>
+      <c r="CU49" s="5">
+        <v>7.9</v>
       </c>
       <c r="CV49" s="8">
         <v>4.9000000000000004</v>
@@ -13119,8 +13119,8 @@
       <c r="CT50" s="8">
         <v>2.5</v>
       </c>
-      <c r="CU50" s="8">
-        <v>1.6</v>
+      <c r="CU50" s="5">
+        <v>15.2</v>
       </c>
       <c r="CV50" s="8">
         <v>3</v>
@@ -13374,8 +13374,8 @@
       <c r="CT51" s="8">
         <v>7.3</v>
       </c>
-      <c r="CU51" s="8">
-        <v>2.4</v>
+      <c r="CU51" s="5">
+        <v>8</v>
       </c>
       <c r="CV51" s="8">
         <v>4.2</v>
@@ -13611,8 +13611,8 @@
       <c r="CT52" s="8">
         <v>2.9</v>
       </c>
-      <c r="CU52" s="8">
-        <v>1.2</v>
+      <c r="CU52" s="5">
+        <v>13.9</v>
       </c>
       <c r="CV52" s="8">
         <v>3.1</v>
@@ -13866,8 +13866,8 @@
       <c r="CT53" s="8">
         <v>1.8</v>
       </c>
-      <c r="CU53" s="8">
-        <v>1.4</v>
+      <c r="CU53" s="5">
+        <v>14.1</v>
       </c>
       <c r="CV53" s="8">
         <v>1.8</v>
@@ -14103,8 +14103,8 @@
       <c r="CT54" s="8">
         <v>2.6</v>
       </c>
-      <c r="CU54" s="8">
-        <v>1.9</v>
+      <c r="CU54" s="5">
+        <v>12.4</v>
       </c>
       <c r="CV54" s="8">
         <v>2.1</v>
@@ -14358,8 +14358,8 @@
       <c r="CT55" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="CU55" s="8">
-        <v>2.1</v>
+      <c r="CU55" s="5">
+        <v>10.8</v>
       </c>
       <c r="CV55" s="8">
         <v>2.4</v>
@@ -14595,8 +14595,8 @@
       <c r="CT56" s="8">
         <v>3.3</v>
       </c>
-      <c r="CU56" s="8">
-        <v>1.8</v>
+      <c r="CU56" s="5">
+        <v>11.7</v>
       </c>
       <c r="CV56" s="8">
         <v>2.4</v>
@@ -14848,8 +14848,8 @@
       <c r="CT57" s="8">
         <v>1.9</v>
       </c>
-      <c r="CU57" s="8">
-        <v>1.8</v>
+      <c r="CU57" s="5">
+        <v>9.6</v>
       </c>
       <c r="CV57" s="8">
         <v>1.6</v>
@@ -15101,8 +15101,8 @@
       <c r="CT58" s="8">
         <v>4</v>
       </c>
-      <c r="CU58" s="8">
-        <v>1.4</v>
+      <c r="CU58" s="5">
+        <v>11.3</v>
       </c>
       <c r="CV58" s="8">
         <v>2.2999999999999998</v>
@@ -15356,8 +15356,8 @@
       <c r="CT59" s="8">
         <v>2.8</v>
       </c>
-      <c r="CU59" s="8">
-        <v>1.1000000000000001</v>
+      <c r="CU59" s="5">
+        <v>11.1</v>
       </c>
       <c r="CV59" s="8">
         <v>3</v>
@@ -15593,8 +15593,8 @@
       <c r="CT60" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="CU60" s="8">
-        <v>1.2</v>
+      <c r="CU60" s="5">
+        <v>10.5</v>
       </c>
       <c r="CV60" s="8">
         <v>2</v>
@@ -15830,8 +15830,8 @@
       <c r="CT61" s="8">
         <v>2.4</v>
       </c>
-      <c r="CU61" s="8">
-        <v>1.8</v>
+      <c r="CU61" s="5">
+        <v>13.9</v>
       </c>
       <c r="CV61" s="8">
         <v>3.8</v>
@@ -16067,8 +16067,8 @@
       <c r="CT62" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="CU62" s="8">
-        <v>1.1000000000000001</v>
+      <c r="CU62" s="5">
+        <v>10</v>
       </c>
       <c r="CV62" s="8">
         <v>2.1</v>
@@ -16322,8 +16322,8 @@
       <c r="CT63" s="8">
         <v>3.4</v>
       </c>
-      <c r="CU63" s="8">
-        <v>1.3</v>
+      <c r="CU63" s="5">
+        <v>9.6999999999999993</v>
       </c>
       <c r="CV63" s="8">
         <v>2.7</v>
@@ -21148,8 +21148,8 @@
   </sheetPr>
   <dimension ref="A1:DC74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="P29" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="P33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="Q45" sqref="Q45"/>

--- a/data-raw/master_spreadsheet.xlsx
+++ b/data-raw/master_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/tyler_sagendorf_pnnl_gov/Documents/Documents/GitHub/MotrpacRatTrainingPhysiologyData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{30165F3F-EC58-4D83-947C-1967F7365395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA551AEC-EDD0-4546-A6F9-B98CDF3225CF}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{30165F3F-EC58-4D83-947C-1967F7365395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48B05657-8B87-4DAD-95DB-C896DB4E57BE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48E83CD8-9515-C84B-AE7B-F9EF1ED86EC0}"/>
+    <workbookView xWindow="240" yWindow="980" windowWidth="18960" windowHeight="9220" activeTab="2" xr2:uid="{48E83CD8-9515-C84B-AE7B-F9EF1ED86EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Female 6M" sheetId="3" r:id="rId1"/>
@@ -1929,7 +1929,7 @@
   </sheetPr>
   <dimension ref="A1:DC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="CO43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -38689,12 +38689,12 @@
   </sheetPr>
   <dimension ref="A1:DC73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="X59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="DC80" sqref="DC80"/>
       <selection pane="topRight" activeCell="DC80" sqref="DC80"/>
       <selection pane="bottomLeft" activeCell="DC80" sqref="DC80"/>
-      <selection pane="bottomRight" activeCell="Z67" sqref="Z67"/>
+      <selection pane="bottomRight" activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -39184,11 +39184,11 @@
         <v>1.4</v>
       </c>
       <c r="AI2" s="8">
-        <v>49.1</v>
+        <v>72.2</v>
       </c>
       <c r="AJ2" s="8">
         <f t="shared" ref="AJ2:AJ60" si="1">AI2*(AE2/1000)</f>
-        <v>10.851100000000001</v>
+        <v>15.956200000000001</v>
       </c>
       <c r="AK2" s="8">
         <v>51.96</v>
